--- a/biology/Histoire de la zoologie et de la botanique/Luisa_Eugenia_Navas/Luisa_Eugenia_Navas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Luisa_Eugenia_Navas/Luisa_Eugenia_Navas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luisa Eugenia Navas Bustamante, née le 27 juillet 1920 à Chillán (Chili) et morte le 18 novembre 2020 à Santiago[1], est une pharmacienne et botaniste chilienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luisa Eugenia Navas Bustamante, née le 27 juillet 1920 à Chillán (Chili) et morte le 18 novembre 2020 à Santiago, est une pharmacienne et botaniste chilienne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Luisa Eugenia Navas Bustamante obtient son diplôme de chimiste-pharmacienne le 9 mai 1951, année durant laquelle elle est assistante de la Chaire de Botanique de l'École de Chimie et Pharmacie de l'Université du Chili. En 1958 elle devient « professeur extraordinaire », et assistante d'Hugo Gunckel à l'Instituto Pedagógico, dans le département des Plantes. En 1985 elle devient professeure de la chaire de Cryptogamie de la faculté de Sciences chimiques et pharmaciennes.
 Elle se consacre à l'étude des algues marines, et elle se rend avec son père à la station maritime de Biologie à Montemar. Avec l'autorisation du doyen de Pharmacie, elle se rend deux fois par semaine au Musée national d'histoire naturelle du Chili. À la demande d'Humberto Fuenzalida, elle réorganise la section Botanique de Cryptogamie. Grâce à une bourse de l'Unesco elle étudie l'écologie végétale au Mexique, à l'École polytechnique, avec des spécialistes de Montpellier et de San Luis Potosí. Plus tard elle se rend au jardin botanique de l'université centrale de Caracas.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1966 : Monografía sobre las parietarias de Chile. 9 pp.
 1971 : Distribución Geográfica de las Mirtáceas Chilenas. Bulletin du Musée National d'Histoire Naturelle. 29: 223-247. En ligne
@@ -576,11 +592,13 @@
           <t>Quelques taxons de L.E.Navas</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gavilea longibracteata (Lindl.)Sparre ex L.E.Navas[2],[3],[4]
-Glandularia lipozygioides (Walp.)L.E.Navas[5]
-Myrceugenia colchaguensis[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gavilea longibracteata (Lindl.)Sparre ex L.E.Navas
+Glandularia lipozygioides (Walp.)L.E.Navas
+Myrceugenia colchaguensis
 Parietaria fernandeziana (es P.debilis)</t>
         </is>
       </c>
